--- a/Daerah Istimewa Yogyakarta/05_DIY_Recovered_24032020.xlsx
+++ b/Daerah Istimewa Yogyakarta/05_DIY_Recovered_24032020.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>DISTRIBUSI JUMLAH PASIEN SEMBUH COVID-19 BERDASARKAN WILAYAH KECAMATAN</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>28/03/2020</t>
+  </si>
+  <si>
+    <t>29/03/2020</t>
   </si>
   <si>
     <t>BANTUL</t>
@@ -691,7 +694,7 @@
     <col customWidth="1" min="8" max="8" width="14.71"/>
     <col customWidth="1" min="9" max="9" width="13.57"/>
     <col customWidth="1" min="10" max="10" width="12.29"/>
-    <col customWidth="1" min="11" max="12" width="13.86"/>
+    <col customWidth="1" min="11" max="13" width="13.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -733,16 +736,19 @@
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>0.0</v>
@@ -772,13 +778,16 @@
         <v>0.0</v>
       </c>
       <c r="L3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6">
         <v>0.0</v>
@@ -808,13 +817,16 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6">
         <v>0.0</v>
@@ -844,13 +856,16 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6">
         <v>0.0</v>
@@ -880,13 +895,16 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>0.0</v>
@@ -916,13 +934,16 @@
         <v>0.0</v>
       </c>
       <c r="L7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>0.0</v>
@@ -952,13 +973,16 @@
         <v>0.0</v>
       </c>
       <c r="L8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>0.0</v>
@@ -988,13 +1012,16 @@
         <v>0.0</v>
       </c>
       <c r="L9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>0.0</v>
@@ -1024,13 +1051,16 @@
         <v>0.0</v>
       </c>
       <c r="L10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M10" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6">
         <v>0.0</v>
@@ -1060,13 +1090,16 @@
         <v>0.0</v>
       </c>
       <c r="L11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M11" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6">
         <v>0.0</v>
@@ -1096,13 +1129,16 @@
         <v>0.0</v>
       </c>
       <c r="L12" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6">
         <v>0.0</v>
@@ -1132,13 +1168,16 @@
         <v>0.0</v>
       </c>
       <c r="L13" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6">
         <v>0.0</v>
@@ -1168,13 +1207,16 @@
         <v>0.0</v>
       </c>
       <c r="L14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6">
         <v>0.0</v>
@@ -1204,13 +1246,16 @@
         <v>0.0</v>
       </c>
       <c r="L15" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6">
         <v>0.0</v>
@@ -1240,13 +1285,16 @@
         <v>0.0</v>
       </c>
       <c r="L16" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6">
         <v>0.0</v>
@@ -1276,13 +1324,16 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6">
         <v>0.0</v>
@@ -1312,13 +1363,16 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M18" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6">
         <v>0.0</v>
@@ -1348,15 +1402,18 @@
         <v>0.0</v>
       </c>
       <c r="L19" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6">
         <v>0.0</v>
@@ -1386,13 +1443,16 @@
         <v>0.0</v>
       </c>
       <c r="L20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6">
         <v>0.0</v>
@@ -1422,13 +1482,16 @@
         <v>0.0</v>
       </c>
       <c r="L21" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6">
         <v>0.0</v>
@@ -1458,13 +1521,16 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6">
         <v>0.0</v>
@@ -1494,13 +1560,16 @@
         <v>0.0</v>
       </c>
       <c r="L23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6">
         <v>0.0</v>
@@ -1530,13 +1599,16 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6">
         <v>0.0</v>
@@ -1566,13 +1638,16 @@
         <v>0.0</v>
       </c>
       <c r="L25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M25" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="6">
         <v>0.0</v>
@@ -1602,13 +1677,16 @@
         <v>0.0</v>
       </c>
       <c r="L26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M26" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27" s="6">
         <v>0.0</v>
@@ -1638,13 +1716,16 @@
         <v>0.0</v>
       </c>
       <c r="L27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M27" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6">
         <v>0.0</v>
@@ -1674,13 +1755,16 @@
         <v>0.0</v>
       </c>
       <c r="L28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M28" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6">
         <v>0.0</v>
@@ -1710,13 +1794,16 @@
         <v>0.0</v>
       </c>
       <c r="L29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" s="6">
         <v>0.0</v>
@@ -1746,13 +1833,16 @@
         <v>0.0</v>
       </c>
       <c r="L30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M30" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="6">
         <v>0.0</v>
@@ -1782,13 +1872,16 @@
         <v>0.0</v>
       </c>
       <c r="L31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M31" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6">
         <v>0.0</v>
@@ -1818,13 +1911,16 @@
         <v>0.0</v>
       </c>
       <c r="L32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M32" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6">
         <v>0.0</v>
@@ -1854,13 +1950,16 @@
         <v>0.0</v>
       </c>
       <c r="L33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M33" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6">
         <v>0.0</v>
@@ -1890,13 +1989,16 @@
         <v>0.0</v>
       </c>
       <c r="L34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M34" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="6">
         <v>0.0</v>
@@ -1926,13 +2028,16 @@
         <v>0.0</v>
       </c>
       <c r="L35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M35" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="6">
         <v>0.0</v>
@@ -1962,15 +2067,18 @@
         <v>0.0</v>
       </c>
       <c r="L36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M36" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6">
         <v>0.0</v>
@@ -2000,13 +2108,16 @@
         <v>0.0</v>
       </c>
       <c r="L37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M37" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="6">
         <v>0.0</v>
@@ -2036,13 +2147,16 @@
         <v>0.0</v>
       </c>
       <c r="L38" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M38" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="6">
         <v>0.0</v>
@@ -2072,13 +2186,16 @@
         <v>0.0</v>
       </c>
       <c r="L39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M39" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="6">
         <v>0.0</v>
@@ -2108,13 +2225,16 @@
         <v>0.0</v>
       </c>
       <c r="L40" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M40" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="6">
         <v>0.0</v>
@@ -2144,13 +2264,16 @@
         <v>0.0</v>
       </c>
       <c r="L41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M41" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="6">
         <v>0.0</v>
@@ -2180,13 +2303,16 @@
         <v>0.0</v>
       </c>
       <c r="L42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M42" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="6">
         <v>0.0</v>
@@ -2216,13 +2342,16 @@
         <v>0.0</v>
       </c>
       <c r="L43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M43" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="6">
         <v>0.0</v>
@@ -2252,13 +2381,16 @@
         <v>0.0</v>
       </c>
       <c r="L44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M44" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="6">
         <v>0.0</v>
@@ -2288,13 +2420,16 @@
         <v>0.0</v>
       </c>
       <c r="L45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M45" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="6">
         <v>0.0</v>
@@ -2324,13 +2459,16 @@
         <v>0.0</v>
       </c>
       <c r="L46" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M46" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="6">
         <v>0.0</v>
@@ -2360,13 +2498,16 @@
         <v>0.0</v>
       </c>
       <c r="L47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M47" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="6">
         <v>0.0</v>
@@ -2396,13 +2537,16 @@
         <v>0.0</v>
       </c>
       <c r="L48" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M48" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="6">
         <v>0.0</v>
@@ -2432,13 +2576,16 @@
         <v>0.0</v>
       </c>
       <c r="L49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M49" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="6">
         <v>0.0</v>
@@ -2468,13 +2615,16 @@
         <v>0.0</v>
       </c>
       <c r="L50" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M50" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="6">
         <v>0.0</v>
@@ -2504,13 +2654,16 @@
         <v>0.0</v>
       </c>
       <c r="L51" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" s="6">
         <v>0.0</v>
@@ -2540,13 +2693,16 @@
         <v>0.0</v>
       </c>
       <c r="L52" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M52" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="6">
         <v>0.0</v>
@@ -2576,13 +2732,16 @@
         <v>0.0</v>
       </c>
       <c r="L53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M53" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" s="6">
         <v>0.0</v>
@@ -2612,15 +2771,18 @@
         <v>0.0</v>
       </c>
       <c r="L54" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M54" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="6">
         <v>0.0</v>
@@ -2650,13 +2812,16 @@
         <v>0.0</v>
       </c>
       <c r="L55" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M55" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="6">
         <v>0.0</v>
@@ -2686,13 +2851,16 @@
         <v>0.0</v>
       </c>
       <c r="L56" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M56" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="6">
         <v>0.0</v>
@@ -2722,13 +2890,16 @@
         <v>0.0</v>
       </c>
       <c r="L57" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="6">
         <v>0.0</v>
@@ -2758,13 +2929,16 @@
         <v>0.0</v>
       </c>
       <c r="L58" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="6">
         <v>0.0</v>
@@ -2794,13 +2968,16 @@
         <v>0.0</v>
       </c>
       <c r="L59" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M59" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="6">
         <v>0.0</v>
@@ -2830,13 +3007,16 @@
         <v>0.0</v>
       </c>
       <c r="L60" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="6">
         <v>0.0</v>
@@ -2866,13 +3046,16 @@
         <v>0.0</v>
       </c>
       <c r="L61" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="6">
         <v>0.0</v>
@@ -2902,13 +3085,16 @@
         <v>0.0</v>
       </c>
       <c r="L62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M62" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="6">
         <v>0.0</v>
@@ -2938,13 +3124,16 @@
         <v>0.0</v>
       </c>
       <c r="L63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M63" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="6">
         <v>0.0</v>
@@ -2974,13 +3163,16 @@
         <v>0.0</v>
       </c>
       <c r="L64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M64" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="6">
         <v>0.0</v>
@@ -3010,13 +3202,16 @@
         <v>0.0</v>
       </c>
       <c r="L65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M65" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="6">
         <v>0.0</v>
@@ -3046,15 +3241,18 @@
         <v>0.0</v>
       </c>
       <c r="L66" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M66" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" s="6">
         <v>0.0</v>
@@ -3084,13 +3282,16 @@
         <v>0.0</v>
       </c>
       <c r="L67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M67" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C68" s="6">
         <v>0.0</v>
@@ -3120,13 +3321,16 @@
         <v>0.0</v>
       </c>
       <c r="L68" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M68" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C69" s="6">
         <v>0.0</v>
@@ -3156,13 +3360,16 @@
         <v>0.0</v>
       </c>
       <c r="L69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" s="7">
         <v>1.0</v>
@@ -3192,13 +3399,16 @@
         <v>0.0</v>
       </c>
       <c r="L70" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M70" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" s="6">
         <v>0.0</v>
@@ -3228,13 +3438,16 @@
         <v>0.0</v>
       </c>
       <c r="L71" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M71" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" s="6">
         <v>0.0</v>
@@ -3264,13 +3477,16 @@
         <v>0.0</v>
       </c>
       <c r="L72" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M72" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" s="6">
         <v>0.0</v>
@@ -3300,13 +3516,16 @@
         <v>0.0</v>
       </c>
       <c r="L73" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M73" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74" s="6">
         <v>0.0</v>
@@ -3336,13 +3555,16 @@
         <v>0.0</v>
       </c>
       <c r="L74" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M74" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" s="6">
         <v>0.0</v>
@@ -3372,13 +3594,16 @@
         <v>0.0</v>
       </c>
       <c r="L75" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M75" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C76" s="6">
         <v>0.0</v>
@@ -3408,13 +3633,16 @@
         <v>0.0</v>
       </c>
       <c r="L76" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M76" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77" s="6">
         <v>0.0</v>
@@ -3444,13 +3672,16 @@
         <v>0.0</v>
       </c>
       <c r="L77" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M77" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C78" s="6">
         <v>0.0</v>
@@ -3480,13 +3711,16 @@
         <v>0.0</v>
       </c>
       <c r="L78" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="6">
         <v>0.0</v>
@@ -3516,13 +3750,16 @@
         <v>0.0</v>
       </c>
       <c r="L79" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C80" s="6">
         <v>0.0</v>
@@ -3552,12 +3789,15 @@
         <v>0.0</v>
       </c>
       <c r="L80" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="6">
         <v>0.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="6">
@@ -3588,6 +3828,9 @@
         <v>0.0</v>
       </c>
       <c r="L81" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="6">
         <v>0.0</v>
       </c>
     </row>
@@ -3602,6 +3845,7 @@
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="C83" s="10"/>
@@ -3614,6 +3858,7 @@
       <c r="J83" s="10"/>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="C84" s="10"/>
@@ -3626,6 +3871,7 @@
       <c r="J84" s="10"/>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="C85" s="10"/>
@@ -3638,6 +3884,7 @@
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="C86" s="10"/>
@@ -3650,6 +3897,7 @@
       <c r="J86" s="10"/>
       <c r="K86" s="10"/>
       <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="C87" s="10"/>
@@ -3662,6 +3910,7 @@
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="C88" s="10"/>
@@ -3674,6 +3923,7 @@
       <c r="J88" s="10"/>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="C89" s="10"/>
@@ -3686,6 +3936,7 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="C90" s="10"/>
@@ -3698,6 +3949,7 @@
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="C91" s="10"/>
@@ -3710,6 +3962,7 @@
       <c r="J91" s="10"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="C92" s="10"/>
@@ -3722,6 +3975,7 @@
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="C93" s="10"/>
@@ -3734,6 +3988,7 @@
       <c r="J93" s="10"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="C94" s="10"/>
@@ -3746,6 +4001,7 @@
       <c r="J94" s="10"/>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="C95" s="10"/>
@@ -3758,6 +4014,7 @@
       <c r="J95" s="10"/>
       <c r="K95" s="10"/>
       <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="C96" s="10"/>
@@ -3770,6 +4027,7 @@
       <c r="J96" s="10"/>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="C97" s="10"/>
@@ -3782,6 +4040,7 @@
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="C98" s="10"/>
@@ -3794,6 +4053,7 @@
       <c r="J98" s="10"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="C99" s="10"/>
@@ -3806,6 +4066,7 @@
       <c r="J99" s="10"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="C100" s="10"/>
@@ -3818,6 +4079,7 @@
       <c r="J100" s="10"/>
       <c r="K100" s="10"/>
       <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
